--- a/biology/Biochimie/Ériodictyol/Ériodictyol.xlsx
+++ b/biology/Biochimie/Ériodictyol/Ériodictyol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89riodictyol</t>
+          <t>Ériodictyol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'ériodictyol est une flavanone (une sous-classe de flavonoïdes) extraite des feuilles de l'Herba Santa (Eriodictyon californicum)[3], une plante poussant dans le nord du Mexique et dans l'État de Californie[4].  
+L'ériodictyol est une flavanone (une sous-classe de flavonoïdes) extraite des feuilles de l'Herba Santa (Eriodictyon californicum), une plante poussant dans le nord du Mexique et dans l'État de Californie.  
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89riodictyol</t>
+          <t>Ériodictyol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Masqueur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La capacité de l'ériodictyol de réduire l'amertume de composé amer a été mis en évidence par Symrise, une entreprise de l'aromatique alimentaire. Dans cette même plante, 3 autres flavonoïdes ont été identifiés avec la même capacité à modifier le goût : la stérubine, l'homoériodictyol et l'Homoériodictyol sodique[3].
-L'ériodictyol a obtenu le statut Fema GRAS (numéro 4715) publié dans l'édition 25[5] et peut donc être utilisé dans les aliments en tant qu'arôme[6].
-L'ériodictyol dosé à 20 ppm réduit de 40 à 60 % la perception amère d'une solution contenant 0,5 g·l-1 de caféine[7]. Il est habituellement utilisé autour de 20 ppm et à un niveau maximum de 100 pm pour la plupart des catégories alimentaires concernées et typiquement 50 ppm avec un maximum de 250 ppm pour les Chewing gums[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La capacité de l'ériodictyol de réduire l'amertume de composé amer a été mis en évidence par Symrise, une entreprise de l'aromatique alimentaire. Dans cette même plante, 3 autres flavonoïdes ont été identifiés avec la même capacité à modifier le goût : la stérubine, l'homoériodictyol et l'Homoériodictyol sodique.
+L'ériodictyol a obtenu le statut Fema GRAS (numéro 4715) publié dans l'édition 25 et peut donc être utilisé dans les aliments en tant qu'arôme.
+L'ériodictyol dosé à 20 ppm réduit de 40 à 60 % la perception amère d'une solution contenant 0,5 g·l-1 de caféine. Il est habituellement utilisé autour de 20 ppm et à un niveau maximum de 100 pm pour la plupart des catégories alimentaires concernées et typiquement 50 ppm avec un maximum de 250 ppm pour les Chewing gums.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89riodictyol</t>
+          <t>Ériodictyol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Autre source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ériodictyol a aussi été identifié dans d'autres végétaux comme le Millettia duchesnei[8] et l'Eupatorium arnottianum[9]. 
-Un de ses hétérosides a été identifié dans l'églantier (Rosa canina)[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ériodictyol a aussi été identifié dans d'autres végétaux comme le Millettia duchesnei et l'Eupatorium arnottianum. 
+Un de ses hétérosides a été identifié dans l'églantier (Rosa canina).
 </t>
         </is>
       </c>
